--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Race.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Race.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28920390-B6FB-47CD-80C6-9582B08E8B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00558C7-0887-4558-BD23-A01CE8ACFD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="1065" windowWidth="26130" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Race" sheetId="1" r:id="rId1"/>
@@ -1428,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
@@ -1468,186 +1468,123 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
         <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>237</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
         <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>240</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1678,1447 +1615,1514 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>242</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>244</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>246</v>
-      </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" t="s">
-        <v>247</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>340</v>
-      </c>
-      <c r="G17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C18" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" t="s">
-        <v>249</v>
-      </c>
-      <c r="G19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>335</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
         <v>224</v>
       </c>
       <c r="C23" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
         <v>224</v>
       </c>
       <c r="C24" t="s">
-        <v>271</v>
+        <v>329</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s">
         <v>224</v>
       </c>
       <c r="C25" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
         <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
         <v>224</v>
       </c>
       <c r="C27" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
         <v>224</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
         <v>224</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
         <v>224</v>
       </c>
       <c r="C31" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" t="s">
+        <v>289</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" t="s">
+        <v>319</v>
+      </c>
+      <c r="D37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" t="s">
+        <v>302</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" t="s">
+        <v>240</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" t="s">
+        <v>260</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" t="s">
+        <v>291</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" t="s">
+        <v>303</v>
+      </c>
+      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>242</v>
+      </c>
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" t="s">
+        <v>318</v>
+      </c>
+      <c r="D57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" t="s">
+        <v>300</v>
+      </c>
+      <c r="D58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" t="s">
+        <v>325</v>
+      </c>
+      <c r="D59" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" t="s">
+        <v>261</v>
+      </c>
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" t="s">
+        <v>285</v>
+      </c>
+      <c r="D62" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" t="s">
+        <v>326</v>
+      </c>
+      <c r="D63" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" t="s">
+        <v>262</v>
+      </c>
+      <c r="D64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" t="s">
+        <v>246</v>
+      </c>
+      <c r="G64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" t="s">
+        <v>273</v>
+      </c>
+      <c r="D65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" t="s">
+        <v>290</v>
+      </c>
+      <c r="D66" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>104</v>
       </c>
-      <c r="B32" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" t="s">
         <v>279</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D68" t="s">
         <v>104</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E68" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" t="s">
+        <v>311</v>
+      </c>
+      <c r="D69" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" t="s">
+        <v>327</v>
+      </c>
+      <c r="D70" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" t="s">
+        <v>233</v>
+      </c>
+      <c r="D71" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>336</v>
+      </c>
+      <c r="B72" t="s">
+        <v>337</v>
+      </c>
+      <c r="C72" t="s">
+        <v>339</v>
+      </c>
+      <c r="D72" t="s">
+        <v>336</v>
+      </c>
+      <c r="E72" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" t="s">
+        <v>328</v>
+      </c>
+      <c r="D73" t="s">
+        <v>205</v>
+      </c>
+      <c r="E73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" t="s">
+        <v>253</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>237</v>
+      </c>
+      <c r="G74" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" t="s">
+        <v>316</v>
+      </c>
+      <c r="D75" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" t="s">
+        <v>308</v>
+      </c>
+      <c r="D76" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>106</v>
       </c>
-      <c r="B33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B78" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" t="s">
         <v>280</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D78" t="s">
         <v>106</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E78" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C34" t="s">
-        <v>281</v>
-      </c>
-      <c r="D34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" t="s">
-        <v>282</v>
-      </c>
-      <c r="D35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C36" t="s">
-        <v>283</v>
-      </c>
-      <c r="D36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" t="s">
-        <v>284</v>
-      </c>
-      <c r="D37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" t="s">
-        <v>285</v>
-      </c>
-      <c r="D38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" t="s">
-        <v>286</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C40" t="s">
-        <v>287</v>
-      </c>
-      <c r="D40" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" t="s">
-        <v>224</v>
-      </c>
-      <c r="C41" t="s">
-        <v>288</v>
-      </c>
-      <c r="D41" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" t="s">
-        <v>289</v>
-      </c>
-      <c r="D42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" t="s">
-        <v>224</v>
-      </c>
-      <c r="C43" t="s">
-        <v>290</v>
-      </c>
-      <c r="D43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" t="s">
-        <v>291</v>
-      </c>
-      <c r="D44" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" t="s">
+        <v>264</v>
+      </c>
+      <c r="D79" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" t="s">
+        <v>340</v>
+      </c>
+      <c r="G79" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" t="s">
+        <v>315</v>
+      </c>
+      <c r="D80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81" t="s">
+        <v>248</v>
+      </c>
+      <c r="G81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" t="s">
+        <v>247</v>
+      </c>
+      <c r="G82" t="s">
+        <v>64</v>
+      </c>
+      <c r="H82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" t="s">
+        <v>270</v>
+      </c>
+      <c r="D83" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85" t="s">
+        <v>324</v>
+      </c>
+      <c r="D85" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>130</v>
       </c>
-      <c r="B45" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B86" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" t="s">
         <v>292</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D86" t="s">
         <v>130</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E86" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" t="s">
-        <v>293</v>
-      </c>
-      <c r="D46" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" t="s">
-        <v>294</v>
-      </c>
-      <c r="D47" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" t="s">
-        <v>224</v>
-      </c>
-      <c r="C48" t="s">
-        <v>295</v>
-      </c>
-      <c r="D48" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" t="s">
-        <v>296</v>
-      </c>
-      <c r="D49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" t="s">
-        <v>224</v>
-      </c>
-      <c r="C50" t="s">
-        <v>297</v>
-      </c>
-      <c r="D50" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>142</v>
-      </c>
-      <c r="B51" t="s">
-        <v>224</v>
-      </c>
-      <c r="C51" t="s">
-        <v>298</v>
-      </c>
-      <c r="D51" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" t="s">
-        <v>224</v>
-      </c>
-      <c r="C52" t="s">
-        <v>299</v>
-      </c>
-      <c r="D52" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" t="s">
-        <v>224</v>
-      </c>
-      <c r="C53" t="s">
-        <v>300</v>
-      </c>
-      <c r="D53" t="s">
-        <v>146</v>
-      </c>
-      <c r="E53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" t="s">
-        <v>224</v>
-      </c>
-      <c r="C54" t="s">
-        <v>301</v>
-      </c>
-      <c r="D54" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" t="s">
-        <v>224</v>
-      </c>
-      <c r="C55" t="s">
-        <v>302</v>
-      </c>
-      <c r="D55" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" t="s">
-        <v>303</v>
-      </c>
-      <c r="D56" t="s">
-        <v>152</v>
-      </c>
-      <c r="E56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B57" t="s">
-        <v>224</v>
-      </c>
-      <c r="C57" t="s">
-        <v>304</v>
-      </c>
-      <c r="D57" t="s">
-        <v>154</v>
-      </c>
-      <c r="E57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" t="s">
-        <v>224</v>
-      </c>
-      <c r="C58" t="s">
-        <v>305</v>
-      </c>
-      <c r="D58" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" t="s">
-        <v>224</v>
-      </c>
-      <c r="C59" t="s">
-        <v>306</v>
-      </c>
-      <c r="D59" t="s">
-        <v>158</v>
-      </c>
-      <c r="E59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" t="s">
-        <v>224</v>
-      </c>
-      <c r="C60" t="s">
-        <v>307</v>
-      </c>
-      <c r="D60" t="s">
-        <v>160</v>
-      </c>
-      <c r="E60" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" t="s">
-        <v>224</v>
-      </c>
-      <c r="C61" t="s">
-        <v>308</v>
-      </c>
-      <c r="D61" t="s">
-        <v>162</v>
-      </c>
-      <c r="E61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" t="s">
-        <v>309</v>
-      </c>
-      <c r="D62" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>166</v>
-      </c>
-      <c r="B63" t="s">
-        <v>224</v>
-      </c>
-      <c r="C63" t="s">
-        <v>310</v>
-      </c>
-      <c r="D63" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" t="s">
-        <v>224</v>
-      </c>
-      <c r="C64" t="s">
-        <v>311</v>
-      </c>
-      <c r="D64" t="s">
-        <v>168</v>
-      </c>
-      <c r="E64" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>170</v>
-      </c>
-      <c r="B65" t="s">
-        <v>224</v>
-      </c>
-      <c r="C65" t="s">
-        <v>312</v>
-      </c>
-      <c r="D65" t="s">
-        <v>170</v>
-      </c>
-      <c r="E65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>172</v>
-      </c>
-      <c r="B66" t="s">
-        <v>224</v>
-      </c>
-      <c r="C66" t="s">
-        <v>313</v>
-      </c>
-      <c r="D66" t="s">
-        <v>172</v>
-      </c>
-      <c r="E66" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>174</v>
-      </c>
-      <c r="B67" t="s">
-        <v>224</v>
-      </c>
-      <c r="C67" t="s">
-        <v>314</v>
-      </c>
-      <c r="D67" t="s">
-        <v>174</v>
-      </c>
-      <c r="E67" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" t="s">
-        <v>227</v>
-      </c>
-      <c r="C68" t="s">
-        <v>315</v>
-      </c>
-      <c r="D68" t="s">
-        <v>176</v>
-      </c>
-      <c r="E68" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69" t="s">
-        <v>224</v>
-      </c>
-      <c r="C69" t="s">
-        <v>316</v>
-      </c>
-      <c r="D69" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>180</v>
-      </c>
-      <c r="B70" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" t="s">
-        <v>317</v>
-      </c>
-      <c r="D70" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>182</v>
-      </c>
-      <c r="B71" t="s">
-        <v>224</v>
-      </c>
-      <c r="C71" t="s">
-        <v>318</v>
-      </c>
-      <c r="D71" t="s">
-        <v>182</v>
-      </c>
-      <c r="E71" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>184</v>
-      </c>
-      <c r="B72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C72" t="s">
-        <v>319</v>
-      </c>
-      <c r="D72" t="s">
-        <v>184</v>
-      </c>
-      <c r="E72" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>186</v>
-      </c>
-      <c r="B73" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" t="s">
-        <v>320</v>
-      </c>
-      <c r="D73" t="s">
-        <v>186</v>
-      </c>
-      <c r="E73" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>188</v>
-      </c>
-      <c r="B74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C74" t="s">
-        <v>233</v>
-      </c>
-      <c r="D74" t="s">
-        <v>188</v>
-      </c>
-      <c r="E74" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>190</v>
       </c>
-      <c r="B75" t="s">
-        <v>224</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B87" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" t="s">
         <v>321</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D87" t="s">
         <v>190</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E87" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" t="s">
+        <v>250</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>192</v>
       </c>
-      <c r="B76" t="s">
-        <v>224</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" t="s">
         <v>322</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D89" t="s">
         <v>192</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E89" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>194</v>
-      </c>
-      <c r="B77" t="s">
-        <v>224</v>
-      </c>
-      <c r="C77" t="s">
-        <v>323</v>
-      </c>
-      <c r="D77" t="s">
-        <v>194</v>
-      </c>
-      <c r="E77" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>196</v>
-      </c>
-      <c r="B78" t="s">
-        <v>224</v>
-      </c>
-      <c r="C78" t="s">
-        <v>324</v>
-      </c>
-      <c r="D78" t="s">
-        <v>196</v>
-      </c>
-      <c r="E78" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>198</v>
-      </c>
-      <c r="B79" t="s">
-        <v>224</v>
-      </c>
-      <c r="C79" t="s">
-        <v>325</v>
-      </c>
-      <c r="D79" t="s">
-        <v>198</v>
-      </c>
-      <c r="E79" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>200</v>
-      </c>
-      <c r="B80" t="s">
-        <v>224</v>
-      </c>
-      <c r="C80" t="s">
-        <v>326</v>
-      </c>
-      <c r="D80" t="s">
-        <v>200</v>
-      </c>
-      <c r="E80" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>202</v>
-      </c>
-      <c r="B81" t="s">
-        <v>224</v>
-      </c>
-      <c r="C81" t="s">
-        <v>327</v>
-      </c>
-      <c r="D81" t="s">
-        <v>202</v>
-      </c>
-      <c r="E81" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>204</v>
-      </c>
-      <c r="B82" t="s">
-        <v>230</v>
-      </c>
-      <c r="C82" t="s">
-        <v>328</v>
-      </c>
-      <c r="D82" t="s">
-        <v>205</v>
-      </c>
-      <c r="E82" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>207</v>
-      </c>
-      <c r="B83" t="s">
-        <v>224</v>
-      </c>
-      <c r="C83" t="s">
-        <v>329</v>
-      </c>
-      <c r="D83" t="s">
-        <v>207</v>
-      </c>
-      <c r="E83" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>209</v>
-      </c>
-      <c r="B84" t="s">
-        <v>224</v>
-      </c>
-      <c r="C84" t="s">
-        <v>330</v>
-      </c>
-      <c r="D84" t="s">
-        <v>209</v>
-      </c>
-      <c r="E84" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>211</v>
-      </c>
-      <c r="B85" t="s">
-        <v>224</v>
-      </c>
-      <c r="C85" t="s">
-        <v>331</v>
-      </c>
-      <c r="D85" t="s">
-        <v>211</v>
-      </c>
-      <c r="E85" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>213</v>
-      </c>
-      <c r="B86" t="s">
-        <v>224</v>
-      </c>
-      <c r="C86" t="s">
-        <v>332</v>
-      </c>
-      <c r="D86" t="s">
-        <v>213</v>
-      </c>
-      <c r="E86" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>215</v>
-      </c>
-      <c r="B87" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" t="s">
-        <v>333</v>
-      </c>
-      <c r="D87" t="s">
-        <v>215</v>
-      </c>
-      <c r="E87" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>217</v>
-      </c>
-      <c r="B88" t="s">
-        <v>227</v>
-      </c>
-      <c r="C88" t="s">
-        <v>334</v>
-      </c>
-      <c r="D88" t="s">
-        <v>218</v>
-      </c>
-      <c r="E88" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>220</v>
-      </c>
-      <c r="B89" t="s">
-        <v>232</v>
-      </c>
-      <c r="C89" t="s">
-        <v>335</v>
-      </c>
-      <c r="D89" t="s">
-        <v>220</v>
-      </c>
-      <c r="E89" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>336</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>337</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="D90" t="s">
-        <v>336</v>
+        <v>100</v>
       </c>
       <c r="E90" t="s">
-        <v>338</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H90">
+      <sortCondition ref="C2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Race.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Race.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00558C7-0887-4558-BD23-A01CE8ACFD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC73904-A4CA-40ED-895A-F91C39A37BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="355">
   <si>
     <t>id</t>
   </si>
@@ -1046,6 +1046,48 @@
   </si>
   <si>
     <t>Semideuses são descendentes de uma encarnação divina que desceu à terra e se misturou com os humanos. A maioria deles é fruto dos caprichos dos deuses, sendo raro que descubram suas verdadeiras origens ou habilidades únicas. Possuem uma beleza comparável à dos próprios deuses, habilidades equilibradas, grande vitalidade e mana.</t>
+  </si>
+  <si>
+    <t>centaur</t>
+  </si>
+  <si>
+    <t>EA 23.195</t>
+  </si>
+  <si>
+    <t>ケンタウロス</t>
+  </si>
+  <si>
+    <t>Centaurs are a half-human, half-beast race who embody both a powerful physique and wisdom. Their noble figures, galloping across the wilderness and battlefield alike, have been celebrated in countless tales. Though averse to sorcery, they more than make up for it with their mastery of archery. Among them, rare individuals awaken to the “Seventh Sense,” a gift that grants abilities far beyond ordinary beings, and their arrows are said to never miss their mark.</t>
+  </si>
+  <si>
+    <t>ケンタウロスは、強靭な肉体と叡智を併せ持つ半人半獣族です。荒野や戦場を駆け抜けるその高貴な姿は、古来より多くの英雄譚に語られています。彼らは魔術を苦手としていますが、それを補って余りあるほどの射撃術を誇ります。彼らの中には、稀に「第七感」に目覚める者が現れるとされ、それにより解き放たれる能力は常人をはるかに凌ぎ、矢は必ず標的を捉えると言われています。</t>
+  </si>
+  <si>
+    <t>vampire</t>
+  </si>
+  <si>
+    <t>EA 23.242</t>
+  </si>
+  <si>
+    <t>吸血鬼</t>
+  </si>
+  <si>
+    <t>Vampires have long been feared as rulers of the night, gifted with both exceptional physical prowess and keen intellect. They display extraordinary abilities under the cover of darkness, yet remain vulnerable to sunlight and flame. Unable to sustain themselves on ordinary food, they are ever in hunger for fresh, living blood.</t>
+  </si>
+  <si>
+    <t>吸血鬼は古来より夜の支配者として恐れられてきた種族で、高い身体能力と知性を備えています。彼らは闇夜の中で並外れた能力を発揮しますが、日の光と炎には脆弱で、通常の食事で栄養を満たすことができず、常に新鮮な生き血に飢えています。</t>
+  </si>
+  <si>
+    <t>centauro</t>
+  </si>
+  <si>
+    <t>vampiro</t>
+  </si>
+  <si>
+    <t>Os centauros são uma raça meio-humana, meio-fera que encarnam tanto um físico poderoso quanto sabedoria. Suas figuras nobres, galopando por terras selvagens e campos de batalha, são celebradas em inúmeras lendas. Embora avessos à feitiçaria, compensam amplamente com sua maestria no arco e flecha. Entre eles, raros indivíduos despertam o "Sétimo Sentido", um dom que concede habilidades muito além de seres comuns, e suas flechas nunca erram o alvo.</t>
+  </si>
+  <si>
+    <t>Os vampiros há muito são temidos como soberanos da noite, dotados tanto de proeza física excepcional quanto intelecto aguçado. Eles demonstram habilidades extraordinárias sob o manto da escuridão, mas permanecem vulneráveis à luz do sol e ao fogo. Incapazes de se sustentar com comida comum, vivem eternamente famintos por sangue fresco e vivo.</t>
   </si>
 </sst>
 </file>
@@ -1426,11 +1468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91:F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,1591 +1512,1591 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
         <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
         <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>249</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
         <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
         <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
         <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
         <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
         <v>224</v>
       </c>
       <c r="C18" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
         <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
         <v>224</v>
       </c>
       <c r="C20" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="D22" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
         <v>224</v>
       </c>
       <c r="C23" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
         <v>224</v>
       </c>
       <c r="C24" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
         <v>224</v>
       </c>
       <c r="C25" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
         <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
         <v>224</v>
       </c>
       <c r="C27" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>224</v>
       </c>
       <c r="C28" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
         <v>224</v>
       </c>
       <c r="C29" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" t="s">
-        <v>239</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
         <v>224</v>
       </c>
       <c r="C31" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s">
         <v>224</v>
       </c>
       <c r="C33" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
         <v>224</v>
       </c>
       <c r="C34" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>235</v>
-      </c>
-      <c r="G35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
         <v>224</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>234</v>
-      </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
         <v>224</v>
       </c>
       <c r="C37" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
         <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
         <v>224</v>
       </c>
       <c r="C39" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="B40" t="s">
         <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" t="s">
-        <v>240</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>224</v>
       </c>
       <c r="C41" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
         <v>224</v>
       </c>
       <c r="C42" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
         <v>224</v>
       </c>
       <c r="C43" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C44" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C45" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" t="s">
-        <v>245</v>
-      </c>
-      <c r="G45" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
         <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
         <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
         <v>224</v>
       </c>
       <c r="C48" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
         <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B50" t="s">
         <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
         <v>224</v>
       </c>
       <c r="C52" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="D52" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
         <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
         <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="E55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="B56" t="s">
         <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B57" t="s">
         <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
         <v>224</v>
       </c>
       <c r="C58" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
         <v>224</v>
       </c>
       <c r="C59" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="E59" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
-      </c>
-      <c r="F60" t="s">
-        <v>244</v>
-      </c>
-      <c r="G60" t="s">
-        <v>56</v>
-      </c>
-      <c r="H60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
         <v>224</v>
       </c>
       <c r="C61" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
         <v>224</v>
       </c>
       <c r="C62" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="B63" t="s">
         <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="D63" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="E63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>262</v>
+        <v>324</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="E64" t="s">
-        <v>59</v>
-      </c>
-      <c r="F64" t="s">
-        <v>246</v>
-      </c>
-      <c r="G64" t="s">
-        <v>60</v>
-      </c>
-      <c r="H64" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
         <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
         <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="B67" t="s">
         <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="E67" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
         <v>224</v>
       </c>
       <c r="C68" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C69" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="D69" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>76</v>
+      </c>
+      <c r="F69" t="s">
+        <v>249</v>
+      </c>
+      <c r="G69" t="s">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C70" t="s">
-        <v>327</v>
+        <v>255</v>
       </c>
       <c r="D70" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>203</v>
+        <v>30</v>
+      </c>
+      <c r="F70" t="s">
+        <v>239</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>189</v>
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>235</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>337</v>
+        <v>223</v>
       </c>
       <c r="C72" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="D72" t="s">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="E72" t="s">
-        <v>338</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="E73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F73" t="s">
+        <v>245</v>
+      </c>
+      <c r="G73" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
         <v>223</v>
       </c>
       <c r="C74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" t="s">
-        <v>237</v>
+        <v>26</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="G74" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="D75" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="E75" t="s">
-        <v>179</v>
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>242</v>
+      </c>
+      <c r="G75" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C76" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="D76" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>55</v>
+      </c>
+      <c r="F76" t="s">
+        <v>244</v>
+      </c>
+      <c r="G76" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C77" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>175</v>
+        <v>22</v>
+      </c>
+      <c r="F77" t="s">
+        <v>237</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C78" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>63</v>
+      </c>
+      <c r="F78" t="s">
+        <v>247</v>
+      </c>
+      <c r="G78" t="s">
+        <v>64</v>
+      </c>
+      <c r="H78" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C79" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E79" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F79" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="G79" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H79" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C80" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="E80" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="D81" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="E81" t="s">
-        <v>71</v>
-      </c>
-      <c r="F81" t="s">
-        <v>248</v>
-      </c>
-      <c r="G81" t="s">
-        <v>72</v>
-      </c>
-      <c r="H81" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="B82" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C82" t="s">
-        <v>263</v>
+        <v>334</v>
       </c>
       <c r="D82" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="E82" t="s">
-        <v>63</v>
-      </c>
-      <c r="F82" t="s">
-        <v>247</v>
-      </c>
-      <c r="G82" t="s">
-        <v>64</v>
-      </c>
-      <c r="H82" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C83" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D83" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E83" t="s">
-        <v>87</v>
+        <v>67</v>
+      </c>
+      <c r="F83" t="s">
+        <v>340</v>
+      </c>
+      <c r="G83" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="B84" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C84" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C85" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
       <c r="D85" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="E85" t="s">
-        <v>197</v>
+        <v>59</v>
+      </c>
+      <c r="F85" t="s">
+        <v>246</v>
+      </c>
+      <c r="G85" t="s">
+        <v>60</v>
+      </c>
+      <c r="H85" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C86" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="D86" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="E86" t="s">
-        <v>131</v>
+        <v>47</v>
+      </c>
+      <c r="F86" t="s">
+        <v>243</v>
+      </c>
+      <c r="G86" t="s">
+        <v>48</v>
+      </c>
+      <c r="H86" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="B87" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="C87" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="D87" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="E87" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3085,42 +3127,94 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C89" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="D89" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="E89" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C90" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="E90" t="s">
-        <v>101</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>341</v>
+      </c>
+      <c r="B91" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" t="s">
+        <v>351</v>
+      </c>
+      <c r="D91" t="s">
+        <v>341</v>
+      </c>
+      <c r="E91" t="s">
+        <v>343</v>
+      </c>
+      <c r="F91" t="s">
+        <v>353</v>
+      </c>
+      <c r="G91" t="s">
+        <v>344</v>
+      </c>
+      <c r="H91" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>346</v>
+      </c>
+      <c r="B92" t="s">
+        <v>347</v>
+      </c>
+      <c r="C92" t="s">
+        <v>352</v>
+      </c>
+      <c r="D92" t="s">
+        <v>346</v>
+      </c>
+      <c r="E92" t="s">
+        <v>348</v>
+      </c>
+      <c r="F92" t="s">
+        <v>354</v>
+      </c>
+      <c r="G92" t="s">
+        <v>349</v>
+      </c>
+      <c r="H92" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H90">
-      <sortCondition ref="C2"/>
+      <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Race.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Race.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC73904-A4CA-40ED-895A-F91C39A37BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624F8021-DAD0-4F86-8D59-C7C8CE3BB30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="3345" windowWidth="15480" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Race" sheetId="1" r:id="rId1"/>
@@ -1078,23 +1078,23 @@
     <t>吸血鬼は古来より夜の支配者として恐れられてきた種族で、高い身体能力と知性を備えています。彼らは闇夜の中で並外れた能力を発揮しますが、日の光と炎には脆弱で、通常の食事で栄養を満たすことができず、常に新鮮な生き血に飢えています。</t>
   </si>
   <si>
-    <t>centauro</t>
-  </si>
-  <si>
-    <t>vampiro</t>
-  </si>
-  <si>
     <t>Os centauros são uma raça meio-humana, meio-fera que encarnam tanto um físico poderoso quanto sabedoria. Suas figuras nobres, galopando por terras selvagens e campos de batalha, são celebradas em inúmeras lendas. Embora avessos à feitiçaria, compensam amplamente com sua maestria no arco e flecha. Entre eles, raros indivíduos despertam o "Sétimo Sentido", um dom que concede habilidades muito além de seres comuns, e suas flechas nunca erram o alvo.</t>
   </si>
   <si>
     <t>Os vampiros há muito são temidos como soberanos da noite, dotados tanto de proeza física excepcional quanto intelecto aguçado. Eles demonstram habilidades extraordinárias sob o manto da escuridão, mas permanecem vulneráveis à luz do sol e ao fogo. Incapazes de se sustentar com comida comum, vivem eternamente famintos por sangue fresco e vivo.</t>
+  </si>
+  <si>
+    <t>Centauro</t>
+  </si>
+  <si>
+    <t>Vampiro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1471,20 +1471,20 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91:F92"/>
+      <pane ySplit="2" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="255.75" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>211</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>207</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>209</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>156</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>154</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>166</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>184</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>170</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>198</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>188</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>178</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>162</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>174</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>196</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>192</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>100</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="28.5">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>220</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>204</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>217</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>66</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>176</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>46</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>336</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="28.5">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>215</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>341</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>342</v>
       </c>
       <c r="C91" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D91" t="s">
         <v>341</v>
@@ -3176,7 +3176,7 @@
         <v>343</v>
       </c>
       <c r="F91" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G91" t="s">
         <v>344</v>
@@ -3185,7 +3185,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>346</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>347</v>
       </c>
       <c r="C92" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D92" t="s">
         <v>346</v>
@@ -3202,7 +3202,7 @@
         <v>348</v>
       </c>
       <c r="F92" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G92" t="s">
         <v>349</v>
